--- a/Results for Software Engineer.xlsx
+++ b/Results for Software Engineer.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +434,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Univision communications inc</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Solid experience in developing back-end applications including RESTful APIs using scripting language such as Python, Ruby, PHP, Perl or JavaScript.</t>
+          <t>3+ years of modern software development experience - Knowledge of object-oriented design, full stack web development, microservices and building REST APIs in…</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=67d53325cce97d13&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="3">
@@ -483,32 +483,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>Summer 2020 Internship for Software Engineer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Motorola Solutions</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3+ years of modern software development experience - Knowledge of object-oriented design, full stack web development, microservices and building REST APIs in…</t>
+          <t>Object oriented design, Linux, Android applications and Wearables.The Motorola Solutions Devices Architecture team specializes in the design of world class end…</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5229ce81df35af95&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="4">
@@ -532,32 +532,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IT Software Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>HandApps Software</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Understanding of Java programming and design experience preferred (J2EE and JDBC);We will consider for employment qualified applicants with arrest and…</t>
+          <t>Great problem solver, strong analytical skills.Ability to apply Object Oriented Programming principals in code.Experience with of Visual Studio.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="5">
@@ -581,32 +581,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>IT Software Engineer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HandApps Software</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Great problem solver, strong analytical skills.Ability to apply Object Oriented Programming principals in code.Experience with of Visual Studio.</t>
+          <t>Understanding of Java programming and design experience preferred (J2EE and JDBC);We will consider for employment qualified applicants with arrest and…</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="6">
@@ -630,32 +630,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Software Developer I</t>
+          <t>eCommerce Software Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADT Security Services</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Java, C++, Objective-C, Ruby, Python, Go, HTML 5, CSS and JavaScript.Designs, implements, qualifies and documents software deliverables for cloud and client…</t>
+          <t>We will consider for employment qualified applicants with arrest and conviction records City &amp; County of San Francisco Fair Chance Ordinance.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33431</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df80ea4d942fcc27&amp;fccid=27a2140ddcca6697&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b04dd900a936308f&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="J6" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="7">
@@ -679,32 +679,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>Intern - Software Engineering</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>Atos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maintain knowledge of overall distributed and mainframe system environments, utilities and procedures.Prepare and contribute toward the preparation of project…</t>
+          <t>Java, JavaScript, Swift, Linux command line, Node.js, AngularJS, HTML, CSS and are an eager learner.Engineer interns will work on related plug-ins, clients and…</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=72b25afd2abe539b&amp;fccid=ee6a99db163236c2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="J7" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="8">
@@ -748,7 +748,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="J8" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="9">
@@ -777,32 +777,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Software Engineer, HighJump</t>
+          <t>Sr Native IOS Developer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>bkissel@cticonsulting.net</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Develop performant, scalable, and secure software solutions that meet business requirements.Experience with relational databases such as MS SQL / Oracle /…</t>
+          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The contract will be from 6 months to 1 year.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="10">
@@ -826,32 +826,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Sr Software Engineer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Java, C#, .Net, C, Sybase and Oracle Software Developer is generally responsible for the development, design and implementation of new or modified software…</t>
+          <t>Maintain knowledge of overall distributed and mainframe system environments, utilities and procedures.Prepare and contribute toward the preparation of project…</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="11">
@@ -875,32 +875,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Test Automation Engineer</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Deloitte Services LP includes internal support areas such as Marketing and Communications, Human Resources/Talent, Information Technology, Facilities Management…</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="12">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>React Native Software Developer</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25 Point Systems</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Experienced in PostgreSQL Database functionality.The company’s stock and option plan.Knowledge of Linux, Microsoft operating systems.What You Know and Do:</t>
+          <t>You are a developer who has 3+ years of Python, Ruby, or Java experience.You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="13">
@@ -973,32 +973,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IOS Backend Developer</t>
+          <t>Software Engineer, HighJump</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RenewMe - Renew Media Productions</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Total hours for first contract 300-400 hours total over 6-8 months.Must have minimum of 5+ years experience, good team player and communicator, and eager to…</t>
+          <t>Develop performant, scalable, and secure software solutions that meet business requirements.Experience with relational databases such as MS SQL / Oracle /…</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9124addc271b900&amp;fccid=0104a52a15f6e988&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="14">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DevOps Engineer - 3rd Shift</t>
+          <t>Test Automation Engineer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3 - 5 years of experience in all aspects of cloud computing (infrastructure, storage, platforms, and data) with a proven track-record implementing in large…</t>
+          <t>Deloitte Services LP includes internal support areas such as Marketing and Communications, Human Resources/Talent, Information Technology, Facilities Management…</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fabc7c6c56f17fb1&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="15">
@@ -1071,32 +1071,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ERP Application Developer II</t>
+          <t>Sr. Software Engineer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>LexisNexis SA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Extensive knowledge of HTML, CSS, JavaScript/jQuery, XML, JSON, Node.js and Python will be a plus.In order to be considered eligible for the position as an…</t>
+          <t>We are currently seeking a motivated Java application developer to join our team.The role involves developing Java applications that are used within the…</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cec9556a245e3e6e&amp;fccid=8fd36856966c7aad&amp;vjs=3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="J15" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="16">
@@ -1120,32 +1120,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Engineer, Machine Learning</t>
+          <t>React Native Software Developer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>25 Point Systems</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Selecting analytics tools to manage model lifecycle across groups and be experienced in open source tools like Python, R, Tensorflow, keras (Deep learning…</t>
+          <t>Experienced in PostgreSQL Database functionality.The company’s stock and option plan.Knowledge of Linux, Microsoft operating systems.What You Know and Do:</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="17">
@@ -1169,32 +1169,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Software Engineer - Python - Miami</t>
+          <t>Senior Java Engineer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>You are a developer who has 3+ years of Python, Ruby, or Java experience.You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).</t>
+          <t>Proven hands-on experience with object-oriented design and coding skills across a variety of platforms and languages including Java, J2EE, and Go Lang.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6d3b157befea4c4b&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="J17" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="18">
@@ -1218,17 +1218,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sr Native IOS Developer</t>
+          <t>Sr. Wireless Engineer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>bkissel@cticonsulting.net</t>
+          <t>Insight Enterprises, Inc.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The contract will be from 6 months to 1 year.</t>
+          <t>The position described above provides a summary of some the job duties required and what it would be like to work at Insight.What you’ll do at Insight:</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="J18" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="19">
@@ -1267,32 +1267,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Programming Languages C, C++, Core Java, C#.Experience of Project Management Tool using MS Project and MS Visio, UML Case Diagram.</t>
+          <t>Provide embedded software design, technical analysis and resolution of engineering products.Design and implement software of embedded devices and systems from…</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="20">
@@ -1316,32 +1316,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Senior Java Engineer</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thorough understanding of Java, J2EE, JavaScript, web services, and Microservices technologies.Knowledge of public cloud platform like Google Cloud.</t>
+          <t>Jenkins, Ansible, Git, Gitlabs CI/CD, Docker Network and security management for hybrid environment Cloud Architect Certification on Multi-Cloud Platforms.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9959abd079e7575&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="J20" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="21">
@@ -1365,32 +1365,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>What would be great, experience in:As a React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features…</t>
+          <t>Your Day to Day Includes:This is a full-time in-person position at our Deerfield Beach, FL Headquarters as part of our growing development team.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8887f9a664d2caf6&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="J21" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="22">
@@ -1414,32 +1414,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Software Engineering Architect, eCommerce</t>
+          <t>Android Engineer</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Uncommon Coders</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>We will consider for employment qualified applicants with arrest and conviction recordsCity &amp; County of San Francisco Fair Chance Ordinance.</t>
+          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="J22" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="23">
@@ -1463,32 +1463,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Mainframe Developer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Provide embedded software design, technical analysis and resolution of engineering products.Design and implement software of embedded devices and systems from…</t>
+          <t>1 Mainframe Utilities PL4 Required 2 ANSI SQL PL4 Required 3 VSAM PL4 Required 4 JCL PL4 Required 5 COBOL PL4 Required.We have a Mainframe Developer Position .</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>Cognizant·6</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="24">
@@ -1512,32 +1512,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Senior Medical Imaging Software Engineer</t>
+          <t>Senior Software Engineer - Miami</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Will work in embedded software/motion control systems design, prototyping, development, debugging, board bring-up, hardware/software interfacing, verification…</t>
+          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.JS or Go experience.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33487</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=feb7a28ea004bbcb&amp;fccid=a543cad7770f8905&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="25">
@@ -1557,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.JS or Go experience.</t>
+          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="26">
@@ -1606,36 +1606,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Android Engineer</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>Uncommon Coders</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Programming Languages C, C++, Core Java, C#.Experience of Project Management Tool using MS Project and MS Visio, UML Case Diagram.</t>
+          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="27">
@@ -1655,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="28">
@@ -1704,36 +1704,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Excellent scripting skills in Shell, Perl, Python, etc.3-5 years of experience in cloud computing (infrastructure, storage, platforms, and data) with a proven…</t>
+          <t>Selecting analytics tools to manage model lifecycle across groups and be experienced in open source tools like Python, R, Tensorflow, keras (Deep learning…</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="29">
@@ -1753,36 +1753,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Senior Software Engineer, Magicverse</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>Magic Leap - Multiple Locations</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
+          <t>5-7 years of experience programming on at least one of the following languages: Go, Java, or C/C++.5+ years of experience with at least one database backend…</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="30">
@@ -1802,36 +1802,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Magicverse</t>
+          <t>QA Automation Engineer - Miami</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Magic Leap - Multiple Locations</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5+ years of experience with at least one database backend SQL and/or NoSQL (MySQL, PostgreSQL, MongoDB, Redis, DynamoDB, etc.</t>
+          <t>Experience programming in Java or Ruby.QA test suite - Java, Cucumber.The right person for this role will be comfortable manually testing and creating…</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="31">
@@ -1851,36 +1851,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QA Automation Engineer - Miami</t>
+          <t>Middleware Infrastructure Engineer</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>LMS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Experience programming in Java or Ruby.QA test suite - Java, Cucumber.The right person for this role will be comfortable manually testing and creating…</t>
+          <t>Excellent scripting skills in Shell, Perl, Python, etc.3-5 years of experience in cloud computing (infrastructure, storage, platforms, and data) with a proven…</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Doral, FL 33172</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="32">
@@ -1900,36 +1900,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Senior React Native Developer</t>
+          <t>Manager, Software Engineering</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Thomson Reuters</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>What would be great, experience in:At least 5 years of relevant experience.As a Senior React Native Developer at Genius Plaza your responsibilities will…</t>
+          <t>Proven track record of successfully leading multiple projects teams through the full software development life cycle to deliver business goals and requirements.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Delray Beach, FL 33445</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3f8fc1cdc5ed86f4&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c45c1ffc2e2f3abf&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="33">
@@ -1949,36 +1949,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IT Application Development Technical Lead</t>
+          <t>Developer, Senior .NET Web, Energy Management</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ryder</t>
+          <t>Royal Caribbean Cruises Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Detail oriented with excellent follow-up practices.Documents all specifications and requirements for implementation and develop Business Process Procedures …</t>
+          <t>NET Developer to join our exciting and growing team.¿ Support with the vessel operations performance big data strategy (1B data tags collected from the fleet)…</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Miami, FL 33138 (Upper Eastside area)</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f1d36595b2769eca&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="34">
@@ -1998,36 +1998,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Senior Full- Stack Developer</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>SmartProcure-GovSpend</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Experience with Google Data Flow and Pubsub or similar cloud technology.Experience with Google Cloud Architecture or similar.What you bring to the team:</t>
+          <t>Bachelor's degree in MIS, Computer Science or similar strongly preferred.We are looking for someone who….Proven work experience will be considered in lieu of…</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Deerfield Beach, FL 33441</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="35">
@@ -2047,36 +2047,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Experienced in developing ASP.NET 4.5/4.7 with C#, MVC 4.0/5.2, Angular, TypeScript, jQuery, HTML5, RESTful API, Visual Studio 2017, Visual Studio CODE, CSS…</t>
+          <t>Detail oriented with excellent follow-up practices.Documents all specifications and requirements for implementation and develop Business Process Procedures …</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="J35" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="36">
@@ -2096,36 +2096,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Senior Full- Stack Developer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>OPULENTSOFT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>We're looking for a passionate Senior Full-Stack Developer to help us build the next generation of GovSpend, a well-funded civic startup disrupting government…</t>
+          <t>Programming Languages C, C++, Core Java, C#.NET , ASP, HTML, AJAX, XML Web Services, WCF, WPF, Silver light.NET Framework (1.1/2.0, 3.5, 4.0), ADO.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="J36" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="37">
@@ -2145,36 +2145,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Azure Fullstack .NET Developer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ProsourceIT</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ProsourceIT, a technical consulting, staffing and training firm, is seeking an Azure Fullstack .NET Developer to join our Fortune 500 client in Miami, FL on a…</t>
+          <t>Experience with Google Data Flow and Pubsub or similar cloud technology.Experience with Google Cloud Architecture or similar.What you bring to the team:</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=555f8913df46b958&amp;fccid=1953ab42318457e5&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="J37" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="38">
@@ -2194,21 +2194,21 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The position described above provides a summary of some the job duties required and what it would be like to work at Insight.Windows Server 2008 to 2016;</t>
+          <t>SUMMARY: The Senior Database Developer analyzes and examines the business to define needs and/or opportunities by gathering and analyzing data and recommending…</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3eaa276eac5342b6&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="J38" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="39">
@@ -2243,36 +2243,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Systems Engineer (DevOps)</t>
+          <t>Dot Net Developer with Production Support</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Backbase</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Experience with Cloud (AWS or Google cloud) , as well as expertise with Linux/Unix systems.Working knowledge of Maven, Jenkins, Shell, and Python will help you…</t>
+          <t>Net Programming Net ASPNET ANSI SQL.ADONET Net Programming C Net ASPNET.NET MVC PL3 Required 3 REST Web Services PL3 Required 4 Rest API PL3 Required 5 WCF…</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>Cognizant·6</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="J39" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="40">
@@ -2292,11 +2292,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dot Net Developer with Production Support</t>
+          <t>Sr Java Developer/Lead</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Net Programming Net ASPNET ANSI SQL.ADONET Net Programming C Net ASPNET.We are looking out for Dot Net Developer.WCF Entity Framework Net Framework.</t>
+          <t>Java, Java Rest Service, SOAP Service, Hibernate ORM.1 JSON PL2 Desired 2 DOJO PL2 Desired 3 JQuery PL2 Required 4 Spring MVC PL3 Required 5 Spring Core PL2…</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cognizant·5</t>
+          <t>Cognizant·T</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6699e5a3e9e36eb1&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="J40" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="41">
@@ -2341,36 +2341,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>Systems Engineer (DevOps)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>Backbase</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Experience with Microsoft Visual Studio.We build world class cloud services for small businesses to complete employee management and compliance tasks without…</t>
+          <t>Experience with Cloud (AWS or Google cloud) , as well as expertise with Linux/Unix systems.Working knowledge of Maven, Jenkins, Shell, and Python will help you…</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="J41" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="42">
@@ -2390,36 +2390,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QA Test Automation Lead</t>
+          <t>Automation Engineer</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Royal Caribbean Cruises Ltd. International</t>
+          <t>Connection</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8+ years’ of Java and spring boot experience.Proficiency with object-oriented programming using technologies like Core Java, Restful, SOAP, message queues,…</t>
+          <t>Proven Development experience in Java, PHP or any scripting language.Working and implementation experience with Selenium Automation tool using Java.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33431</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Royal Carib</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=38ad8bc0e72af90f&amp;fccid=f8a8108a00b363f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="J42" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="43">
@@ -2439,36 +2439,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DevOps Support</t>
+          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Green Roads</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3-5+ years of experience Mac OS, Microsoft Office 365, Active Directory and Microsoft Exchange Email.Isolate and troubleshoot operational issues quickly in a…</t>
+          <t>NET 4.5/4.7 with C#, MVC 4.0/5.2, Angular, TypeScript, jQuery, HTML5, RESTful API, Visual Studio 2017, Visual Studio CODE, CSS Sass, JavaScript, JSON, Entity…</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="J43" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="44">
@@ -2488,36 +2488,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Sr. PHP Developer</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Application Development: Designs, develops, implements and test eCommerce related web applications, content management systems and services using Linux/Apache…</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=03747c73ec336952&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="J44" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="45">
@@ -2537,36 +2537,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+          <t>Technical Lead - Web Development</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Appirio</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Excellent communication skills with the ability to explain ideas very clearly through verbal, graphic, and written communication.Expert in HTML5 and CSS3.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=65392defbafb7d7f&amp;fccid=adfb429f0faca696&amp;vjs=3</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="J45" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="46">
@@ -2586,36 +2586,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Java – J2EE Architect</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Axiom Global Technologies</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Lead project team of developers and other technical resources.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise Solutions…</t>
+          <t>Your Day to Day Includes:At least 5 years' experience leading a development team.Contributes to the overall strategic planning to meet company initiatives.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Plantation, FL 33324</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="J46" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="47">
@@ -2635,26 +2635,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Senior Platform Operations Engineer</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Marriott Vacations Worldwide</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Experience working with scripting and or compiled languages, such as Python, Bash, GO, PowerShell, Ruby, etc.Hybrid Cloud (AWS, Azure, etc.).</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami Beach, FL 33139</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93f7e3218d33328c&amp;fccid=c9f5f950ca3de531&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="J47" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="48">
@@ -2684,36 +2684,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Senior Release Engineer</t>
+          <t>Front-End (UI) Web Developer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Amadeus IT Group SA</t>
+          <t>Complyright, Inc.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5+ years TFS/VSTS or similar work-item tracking, Source Control, and Build/Release automation.4+ years real world experience with Microsoft SQL Server, Mongo,…</t>
+          <t>Experience with Microsoft Visual Studio.We build world class cloud services for small businesses to complete employee management and compliance tasks without…</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Pompano Beach, FL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85c3183a7b867640&amp;fccid=ffc4c94689585496&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="J48" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="49">
@@ -2733,36 +2733,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Sr. QA Analyst - Automation Engineer</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PSAV</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Proven Development experience in Java, PHP or any scripting language.Working and implementation experience with Selenium Automation tool using Java.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b1c7455e15561589&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="J49" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="50">
@@ -2782,36 +2782,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+          <t>Java – J2EE Architect</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Egret Technologies</t>
+          <t>Axiom Global Technologies</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t> Excellent written and oral communication skills to support interaction with.The position is for a senior embedded firmware engineer with expertise in…</t>
+          <t>Lead project team of developers and other technical resources.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise Solutions…</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Plantation, FL 33324</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="J50" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="51">
@@ -2831,36 +2831,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Systems Engineering DevOps- Senior Consultant</t>
+          <t>QA Test Automation Lead</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Advanced knowledge/experience with Microsoft Professional Suite (Word, Excel, &amp; PowerPoint) and Microsoft Project required.Learn more about Life at Deloitte.</t>
+          <t>8+ years’ of Java and spring boot experience.Proficiency with object-oriented programming using technologies like Core Java, Restful, SOAP, message queues,…</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="J51" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="52">
@@ -2880,36 +2880,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Performant Financial Corporation</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Capable of quickly learning new technologies and procedures, as well as being willing to train others in procedures mastered as part of implementations.</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="J52" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="53">
@@ -2929,36 +2929,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Global Head of Patent - US/EMEA/APAC</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TTI Corporate</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Responsible for integrating systems to facilitate timely patent clearance work to support new product development teams across multiple business units in…</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
+          <t>Miami Beach, FL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="J53" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="54">
@@ -2978,36 +2978,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Univision communications inc</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Solid experience in developing back-end applications including RESTful APIs using scripting language such as Python, Ruby, PHP, Perl or JavaScript.</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=67d53325cce97d13&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f915cc44a35259c8&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="J54" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="55">
@@ -3027,36 +3027,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>.Net Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3+ years of modern software development experience - Knowledge of object-oriented design, full stack web development, microservices and building REST APIs in…</t>
+          <t>Net framework and Microsoft technologies.Net front-end and SQL back-end programmer who enjoys hands-on development.Net, C#, Ajax, XML/XSLT/XPATH, ADO.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="J55" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="56">
@@ -3076,36 +3076,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>DevOps Support</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HandApps Software</t>
+          <t>Green Roads</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NET for Windows, Android Studio, Xamarin, etc.NET for Windows: 3+ years.Great problem solver, strong analytical skills.Experience with of Visual Studio.</t>
+          <t>3-5+ years of experience Mac OS, Microsoft Office 365, Active Directory and Microsoft Exchange Email.Isolate and troubleshoot operational issues quickly in a…</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="J56" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="57">
@@ -3125,36 +3125,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>IT Software Engineer</t>
+          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Egret Technologies</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Understanding of Java programming and design experience preferred (J2EE and JDBC); J2EE programming and design (Servlets, JSP, EJB, and EAR).</t>
+          <t> Excellent written and oral communication skills to support interaction with.The position is for a senior embedded firmware engineer with expertise in…</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="J57" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="58">
@@ -3174,36 +3174,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Software Engineer, HighJump</t>
+          <t>Systems Engineering DevOps- Senior Consultant</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Develop performant, scalable, and secure software solutions that meet business requirements.NET Web Services, and Message Queueing experience.</t>
+          <t>Advanced knowledge/experience with Microsoft Professional Suite (Word, Excel, &amp; PowerPoint) and Microsoft Project required.Learn more about Life at Deloitte.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="J58" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="59">
@@ -3223,36 +3223,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Software Developer - Miami</t>
+          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Performant Financial Corporation</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 2+ years of Ruby, Node.</t>
+          <t>Capable of quickly learning new technologies and procedures, as well as being willing to train others in procedures mastered as part of implementations.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="J59" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="60">
@@ -3272,36 +3272,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>Global Head of Patent - US/EMEA/APAC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>TTI Corporate</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Maintain knowledge of overall distributed and mainframe system environments, utilities and procedures.Prepare and contribute toward the preparation of project…</t>
+          <t>Product Clearance: Responsible for integrating systems to facilitate timely patent clearance work to support new product development teams across multiple…</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="J60" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="61">
@@ -3321,36 +3321,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Software Developer I</t>
+          <t>.Net Senior Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ADT Security Services</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Proficiency in (some): Java, C++, Objective-C, Ruby, Python, Go, HTML 5, CSS and JavaScript.Position Summary: Designs, implements, qualifies and documents…</t>
+          <t>Net framework and Microsoft technologies.Net front-end and SQL back-end programmer who enjoys hands-on development.Net, C#, Ajax, XML/XSLT/XPATH, ADO.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33431</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df80ea4d942fcc27&amp;fccid=27a2140ddcca6697&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=63cc9d40140db41b&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3359,10 +3359,10 @@
         </is>
       </c>
       <c r="J61" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="62">
@@ -3370,36 +3370,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The ability to communicate complex procedures to other colleagues.Net, C, Sybase and Oracle Software Developer is generally responsible for the development,…</t>
+          <t>3+ years of modern software development experience - Knowledge of object-oriented design, full stack web development, microservices and building REST APIs in…</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="J62" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="63">
@@ -3419,36 +3419,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Test Automation Engineer</t>
+          <t>Summer 2020 Internship for Software Engineer</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Motorola Solutions</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Deloitte Services LP includes internal support areas such as Marketing and Communications, Human Resources/Talent, Information Technology, Facilities Management…</t>
+          <t>Knowledge in the following areas would be greatly beneficial: Object oriented design, Linux, Android applications and Wearables.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5229ce81df35af95&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="J63" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="64">
@@ -3468,21 +3468,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mobile Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>HandApps Software</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
+          <t>NET for Windows, Android Studio, Xamarin, etc.NET for Windows: 3+ years.Great problem solver, strong analytical skills.Experience with of Visual Studio.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3492,12 +3492,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="J64" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="65">
@@ -3517,36 +3517,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ERP Application Developer II</t>
+          <t>IT Software Engineer</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Extensive knowledge of HTML, CSS, JavaScript/jQuery, XML, JSON, Node.js and Python will be a plus.In order to be considered eligible for the position as an…</t>
+          <t>Understanding of Java programming and design experience preferred (J2EE and JDBC); J2EE programming and design (Servlets, JSP, EJB, and EAR).</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3555,10 +3555,10 @@
         </is>
       </c>
       <c r="J65" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="66">
@@ -3566,36 +3566,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>IOS Backend Developer</t>
+          <t>Intern - Software Engineering</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RenewMe - Renew Media Productions</t>
+          <t>Atos</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Total hours for first contract 300-400 hours total over 6-8 months.Must have minimum of 5+ years experience, good team player and communicator, and eager to…</t>
+          <t>Demonstrated knowledge in several or more of the following technologies: Java, JavaScript, Swift, Linux command line, Node.js, AngularJS, HTML, CSS and are an…</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9124addc271b900&amp;fccid=0104a52a15f6e988&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=72b25afd2abe539b&amp;fccid=ee6a99db163236c2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3604,10 +3604,10 @@
         </is>
       </c>
       <c r="J66" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="67">
@@ -3615,36 +3615,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DevOps Engineer - 3rd Shift</t>
+          <t>eCommerce Software Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3 - 5 years of experience in all aspects of cloud computing (infrastructure, storage, platforms, and data) with a proven track-record implementing in large…</t>
+          <t>We will consider for employment qualified applicants with arrest and conviction records City &amp; County of San Francisco Fair Chance Ordinance.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fabc7c6c56f17fb1&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b04dd900a936308f&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="J67" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="68">
@@ -3664,36 +3664,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>React Native Software Developer</t>
+          <t>Sr Software Engineer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>25 Point Systems</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Experienced in PostgreSQL Database functionality.The company’s stock and option plan.Knowledge of Linux, Microsoft operating systems.What You Know and Do:</t>
+          <t>Maintain knowledge of overall distributed and mainframe system environments, utilities and procedures.Prepare and contribute toward the preparation of project…</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="J68" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="69">
@@ -3713,11 +3713,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Software Engineer - Python - Miami</t>
+          <t>Software Developer - Miami</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>You are a developer who has 3+ years of Python, Ruby, or Java experience.You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).</t>
+          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 2+ years of Ruby, Node.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="J69" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="70">
@@ -3762,36 +3762,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Engineer, Machine Learning</t>
+          <t>Software Engineer, HighJump</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Selecting analytics tools to manage model lifecycle across groups and be experienced in open source tools like Python, R, Tensorflow, keras (Deep learning…</t>
+          <t>Develop performant, scalable, and secure software solutions that meet business requirements.NET Web Services, and Message Queueing experience.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3800,10 +3800,10 @@
         </is>
       </c>
       <c r="J70" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="71">
@@ -3811,21 +3811,21 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sr Native IOS Developer</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>bkissel@cticonsulting.net</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The contract will be from 6 months to 1 year.</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3835,12 +3835,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="J71" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="72">
@@ -3860,36 +3860,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Test Automation Engineer</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Programming Languages C, C++, Core Java, C#.NET , ASP, HTML, AJAX, XML Web Services, WCF, WPF, Silver light.NET Framework (1.1/2.0, 3.5, 4.0), ADO.</t>
+          <t>Deloitte Services LP includes internal support areas such as Marketing and Communications, Human Resources/Talent, Information Technology, Facilities Management…</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3898,10 +3898,10 @@
         </is>
       </c>
       <c r="J72" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="73">
@@ -3909,36 +3909,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>Sr. Software Engineer</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>LexisNexis SA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>What would be great, experience in:As a React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features…</t>
+          <t>We are currently seeking a motivated Java application developer to join our team.The role involves developing Java applications that are used within the…</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8887f9a664d2caf6&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cec9556a245e3e6e&amp;fccid=8fd36856966c7aad&amp;vjs=3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3947,10 +3947,10 @@
         </is>
       </c>
       <c r="J73" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="74">
@@ -3958,36 +3958,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Sr Native IOS Developer</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>bkissel@cticonsulting.net</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Design and implement software of embedded devices and…</t>
+          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The contract will be from 6 months to 1 year.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="J74" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="75">
@@ -4007,36 +4007,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Software Engineering Architect, eCommerce</t>
+          <t>React Native Software Developer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>25 Point Systems</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>We will consider for employment qualified applicants with arrest and conviction recordsCity &amp; County of San Francisco Fair Chance Ordinance.</t>
+          <t>Experienced in PostgreSQL Database functionality.The company’s stock and option plan.Knowledge of Linux, Microsoft operating systems.What You Know and Do:</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="J75" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="76">
@@ -4056,11 +4056,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.</t>
+          <t>You are a developer who has 3+ years of Python, Ruby, or Java experience.You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="J76" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="77">
@@ -4105,36 +4105,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Senior Medical Imaging Software Engineer</t>
+          <t>Senior Java Engineer</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Will work in embedded software/motion control systems design, prototyping, development, debugging, board bring-up, hardware/software interfacing, verification…</t>
+          <t>Proven hands-on experience with object-oriented design and coding skills across a variety of platforms and languages including Java, J2EE, and Go Lang.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33487</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=feb7a28ea004bbcb&amp;fccid=a543cad7770f8905&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6d3b157befea4c4b&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="J77" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="78">
@@ -4154,36 +4154,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Senior Java Engineer</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Thorough understanding of Java, J2EE, JavaScript, web services, and Microservices technologies.Knowledge of public cloud platform like Google Cloud.</t>
+          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Design and implement software of embedded devices and…</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9959abd079e7575&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="J78" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="79">
@@ -4203,26 +4203,26 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Sr. Wireless Engineer</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>Insight Enterprises, Inc.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Experience with Google Data Flow and Pubsub or similar cloud technology.Experience with Google Cloud Architecture or similar.</t>
+          <t>The position described above provides a summary of some the job duties required and what it would be like to work at Insight.What you’ll do at Insight:</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="J79" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="80">
@@ -4252,21 +4252,21 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>ERP Application Developer II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>Florida International University</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NET , ASP, HTML, AJAX, XML Web Services, WCF, WPF, Silver light.Experience of Project Management Tool using MS Project and MS Visio, UML Case Diagram.</t>
+          <t>Extensive knowledge of HTML, CSS, JavaScript/jQuery, XML, JSON, Node.js and Python will be a plus.In order to be considered eligible for the position as an…</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="J80" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="81">
@@ -4301,36 +4301,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>Software Engineering Architect, eCommerce</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.</t>
+          <t>We will consider for employment qualified applicants with arrest and conviction recordsCity &amp; County of San Francisco Fair Chance Ordinance.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="J81" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="82">
@@ -4350,36 +4350,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Magicverse</t>
+          <t>Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Magic Leap - Multiple Locations</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5-7 years of experience programming on at least one of the following languages: Go, Java, or C/C++.You will work closely with other teams to identify and meet…</t>
+          <t>Selecting analytics tools to manage model lifecycle across groups and be experienced in open source tools like Python, R, Tensorflow, keras (Deep learning…</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cabfafe1ae263274&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="J82" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="83">
@@ -4399,36 +4399,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Senior React Native Developer</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>As a Senior React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features and services that can scale in…</t>
+          <t>Your Day to Day Includes:Here's how to tell if you're who we're looking for:You have a strong passion for new technologies and driving innovation.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3f8fc1cdc5ed86f4&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="J83" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="84">
@@ -4448,36 +4448,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sr. Wireless Engineer</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>The position described above provides a summary of some the job duties required and what it would be like to work at Insight.What you’ll need to join Insight:</t>
+          <t>Hands-on experience with Ingress of Nginx DevOps tools: Jenkins, Ansible, Git, Gitlabs CI/CD, Docker Network and security management for hybrid environment…</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="J84" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="85">
@@ -4497,21 +4497,21 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DevOps Support</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Green Roads</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3-5+ years of experience Mac OS, Microsoft Office 365, Active Directory and Microsoft Exchange Email.Isolate and troubleshoot operational issues quickly in a…</t>
+          <t>Your Day to Day Includes:This is a full-time in-person position at our Deerfield Beach, FL Headquarters as part of our growing development team.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="J85" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="86">
@@ -4546,36 +4546,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Global Head of Patent - US/EMEA/APAC</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TTI Corporate</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Product Clearance: Responsible for integrating systems to facilitate timely patent clearance work to support new product development teams across multiple…</t>
+          <t>Jenkins, Ansible, Git, Gitlabs CI/CD, Docker Network and security management for hybrid environment Cloud Architect Certification on Multi-Cloud Platforms.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="J86" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="87">
@@ -4595,26 +4595,26 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>OPULENTSOFT</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>We build world class cloud services for small businesses to complete employee management and compliance tasks without compromising other business priorities.</t>
+          <t>Programming Languages C, C++, Core Java, C#.Experience of Project Management Tool using MS Project and MS Visio, UML Case Diagram.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4633,10 +4633,10 @@
         </is>
       </c>
       <c r="J87" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K87" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="88">
@@ -4644,36 +4644,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>IT Application Development Technical Lead</t>
+          <t>Senior Software Engineer - Miami</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ryder</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Detail oriented with excellent follow-up practices.Documents all specifications and requirements for implementation and develop Business Process Procedures …</t>
+          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.JS or Go experience.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Miami, FL 33138 (Upper Eastside area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="J88" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="89">
@@ -4693,36 +4693,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Senior Java Engineer</t>
+          <t>Mainframe Developer</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Here’s just some of what you’ll be doing:Writing code and unit tests, working with API specs and automation.5+ years of software development experience.</t>
+          <t>1 Mainframe Utilities PL4 Required 2 ANSI SQL PL4 Required 3 VSAM PL4 Required 4 JCL PL4 Required 5 COBOL PL4 Required.We have a Mainframe Developer Position .</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9959abd079e7575&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="J89" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K89" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="90">
@@ -4742,21 +4742,21 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Senior Platform Operations Engineer</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Marriott Vacations Worldwide</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Experience working with scripting and or compiled languages, such as Python, Bash, GO, PowerShell, Ruby, etc.Hybrid Cloud (AWS, Azure, etc.).</t>
+          <t>In-depth experience in business intelligence, data analytics, and project management required.This role is responsible for managing complex data from…</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4766,12 +4766,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93f7e3218d33328c&amp;fccid=c9f5f950ca3de531&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="J90" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="91">
@@ -4791,36 +4791,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>QA Automation Engineer - Miami</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Experience programming in Java or Ruby.The right person for this role will be comfortable manually testing and creating automated tests.</t>
+          <t>Detail oriented with excellent follow-up practices.Documents all specifications and requirements for implementation and develop Business Process Procedures …</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="J91" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K91" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="92">
@@ -4840,36 +4840,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Dot Net Developer with Production Support</t>
+          <t>Senior Software Engineer, Magicverse</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>Magic Leap - Multiple Locations</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Net Programming Net ASPNET ANSI SQL.NET MVC PL3 Required 3 REST Web Services PL3 Required 4 Rest API PL3 Required 5 WCF PL4 Desired 6 .NET PL2 Desired 12 ASP.</t>
+          <t>5+ years of experience with at least one database backend SQL and/or NoSQL (MySQL, PostgreSQL, MongoDB, Redis, DynamoDB, etc.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="J92" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="93">
@@ -4889,36 +4889,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Senior Release Engineer</t>
+          <t>Android Engineer</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Amadeus IT Group SA</t>
+          <t>Uncommon Coders</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Net based products using Visual Studio.5+ years TFS/VSTS or similar work-item tracking, Source Control, and Build/Release automation.</t>
+          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85c3183a7b867640&amp;fccid=ffc4c94689585496&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="J93" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="94">
@@ -4938,36 +4938,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Senior Full- Stack Developer</t>
+          <t>Manager, Software Engineering</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Thomson Reuters</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Bachelor's degree in MIS, Computer Science or similar strongly preferred.We are looking for someone who….Proven work experience will be considered in lieu of…</t>
+          <t>Proven track record of successfully leading multiple projects teams through the full software development life cycle to deliver business goals and requirements.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Delray Beach, FL 33445</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c45c1ffc2e2f3abf&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="J94" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="95">
@@ -4987,36 +4987,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+          <t>QA Automation Engineer - Miami</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Egret Technologies</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t> Excellent written and oral communication skills to support interaction with.The position is for a senior embedded firmware engineer with expertise in…</t>
+          <t>Experience programming in Java or Ruby.QA test suite - Java, Cucumber.The right person for this role will be comfortable manually testing and creating…</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5025,10 +5025,10 @@
         </is>
       </c>
       <c r="J95" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="96">
@@ -5036,36 +5036,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+          <t>Senior Full- Stack Developer</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Performant Financial Corporation</t>
+          <t>SmartProcure-GovSpend</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Capable of quickly learning new technologies and procedures, as well as being willing to train others in procedures mastered as part of implementations.</t>
+          <t>We're looking for a passionate Senior Full-Stack Developer to help us build the next generation of GovSpend, a well-funded civic startup disrupting government…</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Deerfield Beach, FL 33441</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5074,10 +5074,10 @@
         </is>
       </c>
       <c r="J96" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K96" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="97">
@@ -5085,36 +5085,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Java – J2EE Architect</t>
+          <t>Middleware Infrastructure Engineer</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Axiom Global Technologies</t>
+          <t>LMS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Lead project team of developers and other technical resources.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise Solutions…</t>
+          <t>Excellent scripting skills in Shell, Perl, Python, etc.3-5 years of experience in cloud computing (infrastructure, storage, platforms, and data) with a proven…</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Plantation, FL 33324</t>
+          <t>Doral, FL 33172</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="J97" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="98">
@@ -5134,36 +5134,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>QA Test Automation Lead</t>
+          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Royal Caribbean Cruises Ltd. International</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>8+ years’ of Java and spring boot experience.Proficiency with object-oriented programming using technologies like Core Java, Restful, SOAP, message queues,…</t>
+          <t>Experienced in developing ASP.NET 4.5/4.7 with C#, MVC 4.0/5.2, Angular, TypeScript, jQuery, HTML5, RESTful API, Visual Studio 2017, Visual Studio CODE, CSS…</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5172,10 +5172,10 @@
         </is>
       </c>
       <c r="J98" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K98" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="99">
@@ -5183,36 +5183,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+          <t>Automation Engineer</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Connection</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Proven Development experience in Java, PHP or any scripting language.Working and implementation experience with Selenium Automation tool using Java.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Boca Raton, FL 33431</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=38ad8bc0e72af90f&amp;fccid=f8a8108a00b363f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="J99" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="100">
@@ -5232,36 +5232,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Systems Engineering DevOps- Senior Consultant</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Let us know what your favorite language is: Python, Golang, Ruby, Shell Script or something else?Capable of running your own code in production and managing…</t>
+          <t>Experience with Google Data Flow and Pubsub or similar cloud technology.Experience with Google Cloud Architecture or similar.What you bring to the team:</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="J100" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K100" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="101">
@@ -5281,36 +5281,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Dot Net Developer with Production Support</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PSAV</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Net Programming Net ASPNET ANSI SQL.ADONET Net Programming C Net ASPNET.We are looking out for Dot Net Developer.WCF Entity Framework Net Framework.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="J101" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="102">
@@ -5330,36 +5330,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Sr Java Developer/Lead</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Java, Java Rest Service, SOAP Service, Hibernate ORM.1 JSON PL2 Desired 2 DOJO PL2 Desired 3 JQuery PL2 Required 4 Spring MVC PL3 Required 5 Spring Core PL2…</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6699e5a3e9e36eb1&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="J102" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="103">
@@ -5379,21 +5379,21 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>QA Test Automation Lead</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Univision communications inc</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Solid experience in developing back-end applications including RESTful APIs using scripting language such as Python, Ruby, PHP, Perl or JavaScript.</t>
+          <t>8+ years’ of Java and spring boot experience.Proficiency with object-oriented programming using technologies like Core Java, Restful, SOAP, message queues,…</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=67d53325cce97d13&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="J103" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="104">
@@ -5428,36 +5428,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>IT Software Engineer</t>
+          <t>Front-End (UI) Web Developer</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Complyright, Inc.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Understanding of Java programming and design experience preferred (J2EE and JDBC); J2EE programming and design (Servlets, JSP, EJB, and EAR).</t>
+          <t>Experience with Microsoft Visual Studio.We build world class cloud services for small businesses to complete employee management and compliance tasks without…</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Pompano Beach, FL</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="J104" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="105">
@@ -5477,36 +5477,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Software Engineer, HighJump</t>
+          <t>Systems Engineer (DevOps)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>Backbase</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Develop performant, scalable, and secure software solutions that meet business requirements.Experience with relational databases such as MS SQL / Oracle /…</t>
+          <t>Experience with Cloud (AWS or Google cloud) , as well as expertise with Linux/Unix systems.Working knowledge of Maven, Jenkins, Shell, and Python will help you…</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="J105" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K105" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="106">
@@ -5526,36 +5526,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
+          <t>Technical Lead - Web Development</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>Appirio</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Maintain knowledge of overall distributed and mainframe system environments, utilities and procedures.Prepare and contribute toward the preparation of project…</t>
+          <t>Excellent communication skills with the ability to explain ideas very clearly through verbal, graphic, and written communication.Expert in HTML5 and CSS3.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=65392defbafb7d7f&amp;fccid=adfb429f0faca696&amp;vjs=3</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5564,10 +5564,10 @@
         </is>
       </c>
       <c r="J106" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="107">
@@ -5575,36 +5575,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Test Automation Engineer</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Deloitte Services LP includes internal support areas such as Marketing and Communications, Human Resources/Talent, Information Technology, Facilities Management…</t>
+          <t>Your Day to Day Includes:At least 5 years' experience leading a development team.Contributes to the overall strategic planning to meet company initiatives.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5613,10 +5613,10 @@
         </is>
       </c>
       <c r="J107" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K107" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="108">
@@ -5624,36 +5624,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Software Developer I</t>
+          <t>Sr. QA Analyst - Automation Engineer</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ADT Security Services</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Position Summary: Designs, implements, qualifies and documents software deliverables for cloud and client software solutions.</t>
+          <t>Proven Development experience in Java, PHP or any scripting language.Working and implementation experience with Selenium Automation tool using Java.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33431</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=df80ea4d942fcc27&amp;fccid=27a2140ddcca6697&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b1c7455e15561589&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="J108" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="109">
@@ -5673,36 +5673,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>Sr. PHP Developer</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>Connection, Inc.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3+ years of modern software development experience - Knowledge of object-oriented design, full stack web development, microservices and building REST APIs in…</t>
+          <t>Designs, develops, implements and test eCommerce related web applications, content management systems and services using Linux/Apache/MySQL/PHP technologies and…</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=03747c73ec336952&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="J109" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="110">
@@ -5722,36 +5722,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ERP Application Developer II</t>
+          <t>Java – J2EE Architect</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>Axiom Global Technologies</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>In order to be considered eligible for the position as an internal candidate, departmental staff must meet minimum requirements of the position, be in good…</t>
+          <t>Lead project team of developers and other technical resources.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise Solutions…</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Plantation, FL 33324</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="J110" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="111">
@@ -5771,26 +5771,26 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DevOps Engineer - 3rd Shift</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Daily monitor server resources and verification of software throughout each development cycle.Bachelor's Degree in Computer Science or similar degree with…</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Miami Beach, FL 33139</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fabc7c6c56f17fb1&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5809,10 +5809,10 @@
         </is>
       </c>
       <c r="J111" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="112">
@@ -5820,36 +5820,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HandApps Software</t>
+          <t>PSAV Presentation Services</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NET for Windows, Android Studio, Xamarin, etc.Experience with of Visual Studio.Develop and execute test plans from development to QA.</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="J112" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K112" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="113">
@@ -5869,36 +5869,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>DevOps Support</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>Green Roads</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Excellent scripting skills in Shell, Perl, Python, etc.3-5 years of experience in cloud computing (infrastructure, storage, platforms, and data) with a proven…</t>
+          <t>3-5+ years of experience Mac OS, Microsoft Office 365, Active Directory and Microsoft Exchange Email.Isolate and troubleshoot operational issues quickly in a…</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5907,10 +5907,10 @@
         </is>
       </c>
       <c r="J113" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K113" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="114">
@@ -5918,36 +5918,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mobile Engineer</t>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>JLL</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami Beach, FL</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="J114" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K114" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="115">
@@ -5967,36 +5967,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Software Engineer - Python - Miami</t>
+          <t>.Net Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>You will be joining the development team.Your primary mission will be to build tooling for other technical and semi-technical users to make them as highly…</t>
+          <t>Experience in web design and development in Microsoft technologies (.Net 3.5 or higher).Experience developing and maintaining software framework and services…</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="J115" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K115" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="116">
@@ -6016,26 +6016,26 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>Performant Financial Corporation</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
+          <t>Capable of quickly learning new technologies and procedures, as well as being willing to train others in procedures mastered as part of implementations.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="J116" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K116" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="117">
@@ -6065,36 +6065,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Systems Engineering DevOps- Senior Consultant</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Must be results oriented while maintaining attention to…</t>
+          <t>Advanced knowledge/experience with Microsoft Professional Suite (Word, Excel, &amp; PowerPoint) and Microsoft Project required.Learn more about Life at Deloitte.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="J117" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K117" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="118">
@@ -6114,36 +6114,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>PSAV</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>What would be great, experience in:As a React Native Developer at Genius Plaza your responsibilities will include to research, design and implement features…</t>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8887f9a664d2caf6&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f915cc44a35259c8&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="J118" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K118" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="119">
@@ -6163,36 +6163,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Software Developer - Miami</t>
+          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Egret Technologies</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>You are a developer who has 2+ years of Ruby, Node.You are going to be responsible for developing and maintaining our production platform.</t>
+          <t> Excellent written and oral communication skills to support interaction with.The position is for a senior embedded firmware engineer with expertise in…</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="J119" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K119" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="120">
@@ -6212,36 +6212,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>React Native Software Developer</t>
+          <t>Global Head of Patent - US/EMEA/APAC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>25 Point Systems</t>
+          <t>TTI Corporate</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>The company’s stock and option plan.Knowledge of Linux, Microsoft operating systems.You’re a competent Software Developer with an energetic passion for what…</t>
+          <t>Responsible for integrating systems to facilitate timely patent clearance work to support new product development teams across multiple business units in…</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Boca Raton, FL</t>
+          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6250,10 +6250,10 @@
         </is>
       </c>
       <c r="J120" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K120" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="121">
@@ -6261,36 +6261,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Systems Engineer (DevOps)</t>
+          <t>.Net Senior Developer, National Federal Tax</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Backbase</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Experience with Cloud (AWS or Google cloud) , as well as expertise with Linux/Unix systems.How would you guide them to success?</t>
+          <t>Experience in web design and development in Microsoft technologies (.Net 3.5 or higher).Experience developing and maintaining software framework and services…</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=63cc9d40140db41b&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6299,10 +6299,10 @@
         </is>
       </c>
       <c r="J121" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K121" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="122">
@@ -6310,11 +6310,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
+          <t>Sr Software Engineer</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>NET 4.5/4.7 with C#, MVC 4.0/5.2, Angular, TypeScript, jQuery, HTML5, RESTful API, Visual Studio 2017, Visual Studio CODE, CSS Sass, JavaScript, JSON, Entity…</t>
+          <t>Maintain knowledge of overall distributed and mainframe system environments, utilities and procedures.Prepare and contribute toward the preparation of project…</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ccd4d6242571931c&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="J122" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K122" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="123">
@@ -6359,36 +6359,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Mainframe Developer</t>
+          <t>Software Engineer, HighJump</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1 Mainframe Utilities PL4 Required 2 ANSI SQL PL4 Required 3 VSAM PL4 Required 4 JCL PL4 Required 5 COBOL PL4 Required.We have a Mainframe Developer Position .</t>
+          <t>Develop performant, scalable, and secure software solutions that meet business requirements.NET Web Services, and Message Queueing experience.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Miami, FL 33101 (Overtown area)</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Cognizant·4</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=09e858863bb4a856&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6397,10 +6397,10 @@
         </is>
       </c>
       <c r="J123" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K123" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="124">
@@ -6408,36 +6408,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>IOS Backend Developer</t>
+          <t>IT Software Engineer</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RenewMe - Renew Media Productions</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Total hours for first contract 300-400 hours total over 6-8 months.Must have minimum of 5+ years experience, good team player and communicator, and eager to…</t>
+          <t>Understanding of Java programming and design experience preferred (J2EE and JDBC); J2EE programming and design (Servlets, JSP, EJB, and EAR).</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9124addc271b900&amp;fccid=0104a52a15f6e988&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=57d593b45fb99746&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="J124" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K124" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="125">
@@ -6457,36 +6457,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Azure Fullstack .NET Developer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ProsourceIT</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>NET Developer to join our Fortune 500 client in Miami, FL on a long-term contract basis.Minimum of eight years of experience developing full stack web…</t>
+          <t>3+ years of modern software development experience - Knowledge of object-oriented design, full stack web development, microservices and building REST APIs in…</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=555f8913df46b958&amp;fccid=1953ab42318457e5&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1f96c38f922fa757&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="J125" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K125" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="126">
@@ -6506,11 +6506,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Software Engineering Architect, eCommerce</t>
+          <t>eCommerce Software Engineer, Machine Learning</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>We will consider for employment qualified applicants with arrest and conviction recordsCity &amp; County of San Francisco Fair Chance Ordinance.</t>
+          <t>We will consider for employment qualified applicants with arrest and conviction records City &amp; County of San Francisco Fair Chance Ordinance.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b04dd900a936308f&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="J126" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K126" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="127">
@@ -6555,36 +6555,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The ability to communicate complex procedures to other colleagues.Net, C, Sybase and Oracle Software Developer is generally responsible for the development,…</t>
+          <t>Summary: Provide embedded software design, technical analysis and resolution of engineering products.Design and implement software of embedded devices and…</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="J127" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K127" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="128">
@@ -6604,36 +6604,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>Sr. Software Engineer</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>LexisNexis SA</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2018 Dell EMC Server Partner of the Year, 2018 Intel Retail Solution Partner of the Year, 2018 Microsoft Worldwide Artificial Intelligence Partner of the Year.</t>
+          <t>We are currently seeking a motivated Java application developer to join our team.The role involves developing Java applications that are used within the…</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3eaa276eac5342b6&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=cec9556a245e3e6e&amp;fccid=8fd36856966c7aad&amp;vjs=3</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="J128" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K128" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="129">
@@ -6653,26 +6653,26 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Intern - Software Engineering</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OPULENTSOFT</t>
+          <t>Atos</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NET , ASP, HTML, AJAX, XML Web Services, WCF, WPF, Silver light.Experience of Project Management Tool using MS Project and MS Visio, UML Case Diagram.</t>
+          <t>Demonstrated knowledge in several or more of the following technologies: Java, JavaScript, Swift, Linux command line, Node.js, AngularJS, HTML, CSS and are an…</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=72b25afd2abe539b&amp;fccid=ee6a99db163236c2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6691,10 +6691,10 @@
         </is>
       </c>
       <c r="J129" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K129" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="130">
@@ -6702,36 +6702,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Senior Medical Imaging Software Engineer</t>
+          <t>Middleware Infrastructure Engineer</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Medical Imaging Innovations</t>
+          <t>LMS</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Will work in embedded software/motion control systems design, prototyping, development, debugging, board bring-up, hardware/software interfacing, verification…</t>
+          <t>Excellent scripting skills in Shell, Perl, Python, etc.3-5 years of experience in cloud computing (infrastructure, storage, platforms, and data) with a proven…</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33487</t>
+          <t>Doral, FL 33172</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=feb7a28ea004bbcb&amp;fccid=a543cad7770f8905&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="J130" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K130" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="131">
@@ -6751,36 +6751,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>Summer 2020 Internship for Software Engineer</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Motorola Solutions</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>You like solving hard problems and are not afraid to touch deployment processes.You have been in a professional development organization for 5+ years.</t>
+          <t>Knowledge in the following areas would be greatly beneficial: Object oriented design, Linux, Android applications and Wearables.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=5229ce81df35af95&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="J131" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K131" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="132">
@@ -6800,21 +6800,21 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Miami</t>
+          <t>Mobile Engineer</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>JLL</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>You are a developer who has 5+ years of Ruby, Node.JS or Go experience.With over 50 employees already, CreditNinja is excited to support its hypergrowth by…</t>
+          <t>Operates, inspects, and maintains all HVAC, mechanical, electrical, plumbing, and production equipment and systems in assigned facilities to obtain most…</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1ca50f39e4d5cb29&amp;fccid=9917de3c28f569f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="J132" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K132" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="133">
@@ -6849,36 +6849,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sr. Wireless Engineer</t>
+          <t>Test Automation Engineer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2018 Dell EMC Server Partner of the Year, 2018 Intel Retail Solution Partner of the Year, 2018 Microsoft Worldwide Artificial Intelligence Partner of the Year.</t>
+          <t>Deloitte Services LP includes internal support areas such as Marketing and Communications, Human Resources/Talent, Information Technology, Facilities Management…</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33131</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=50d6ca08b0b85a6d&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="J133" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="134">
@@ -6898,26 +6898,26 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>IT Application Development Technical Lead</t>
+          <t>ERP Application Developer II</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ryder</t>
+          <t>Florida International University</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Detail oriented with excellent follow-up practices.Documents all specifications and requirements for implementation and develop Business Process Procedures …</t>
+          <t>Extensive knowledge of HTML, CSS, JavaScript/jQuery, XML, JSON, Node.js and Python will be a plus.In order to be considered eligible for the position as an…</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Miami, FL 33138 (Upper Eastside area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e982325f02214cb2&amp;fccid=9d7d68aaaf164604&amp;vjs=3</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6936,10 +6936,10 @@
         </is>
       </c>
       <c r="J134" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K134" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="135">
@@ -6947,36 +6947,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
+          <t>React Native Software Developer</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Assurant</t>
+          <t>25 Point Systems</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Experienced in developing ASP.NET 4.5/4.7 with C#, MVC 4.0/5.2, Angular, TypeScript, jQuery, HTML5, RESTful API, Visual Studio 2017, Visual Studio CODE, CSS…</t>
+          <t>Experienced in PostgreSQL Database functionality.The company’s stock and option plan.Knowledge of Linux, Microsoft operating systems.What You Know and Do:</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Miami, FL 33157</t>
+          <t>Boca Raton, FL</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0eed29d413c0dc65&amp;fccid=1da5008645188c5e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="J135" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="136">
@@ -6996,36 +6996,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Mainframe Developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>HandApps Software</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1 Mainframe Utilities PL4 Required 2 ANSI SQL PL4 Required 3 VSAM PL4 Required 4 JCL PL4 Required 5 COBOL PL4 Required.Should be willing to work at Plano, TX.</t>
+          <t>NET for Windows, Android Studio, Xamarin, etc.NET for Windows: 3+ years.Great problem solver, strong analytical skills.Experience with of Visual Studio.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Miami, FL 33101 (Overtown area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c8de94389cd2d492&amp;fccid=ea6bfb778e0f7aef&amp;vjs=3</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7034,10 +7034,10 @@
         </is>
       </c>
       <c r="J136" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K136" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="137">
@@ -7045,36 +7045,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Senior React Native Developer</t>
+          <t>Android Engineer</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Genius Plaza</t>
+          <t>Uncommon Coders</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>At least 5 years of relevant experience.Play an integral part in the designing and planning of the platforms architecture.</t>
+          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3f8fc1cdc5ed86f4&amp;fccid=341227f5ef887ab9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="J137" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K137" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="138">
@@ -7094,36 +7094,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Magicverse</t>
+          <t>Sr. NET Web Application (Sr. Software Engineer)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Magic Leap - Multiple Locations</t>
+          <t>Assurant</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>5+ years of experience with at least one database backend SQL and/or NoSQL (MySQL, PostgreSQL, MongoDB, Redis, DynamoDB, etc.</t>
+          <t>NET 4.5/4.7 with C#, MVC 4.0/5.2, Angular, TypeScript, jQuery, HTML5, RESTful API, Visual Studio 2017, Visual Studio CODE, CSS Sass, JavaScript, JSON, Entity…</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Miami, FL 33157</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=9320dbbc2e8bb80e&amp;fccid=cc80d5313758adb1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7132,10 +7132,10 @@
         </is>
       </c>
       <c r="J138" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K138" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="139">
@@ -7143,36 +7143,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Senior Full- Stack Developer</t>
+          <t>Software Engineering Architect, eCommerce</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>We're looking for a passionate Senior Full-Stack Developer to help us build the next generation of GovSpend, a well-funded civic startup disrupting government…</t>
+          <t>We will consider for employment qualified applicants with arrest and conviction recordsCity &amp; County of San Francisco Fair Chance Ordinance.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ecc28ce75d67570e&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7181,10 +7181,10 @@
         </is>
       </c>
       <c r="J139" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K139" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="140">
@@ -7192,36 +7192,36 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>QA Automation Engineer - Miami</t>
+          <t>Senior Software Engineer, Magicverse</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Credit Ninja</t>
+          <t>Magic Leap - Multiple Locations</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>QA test suite - Java, Cucumber.With over 50 employees already, CreditNinja is excited to support its hypergrowth by opening a brand new office in Miami!</t>
+          <t>5-7 years of experience programming on at least one of the following languages: Go, Java, or C/C++.5+ years of experience with at least one database backend…</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Plantation, FL</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e8352e69c1a13527&amp;fccid=250b3b23ab6d1a65&amp;vjs=3</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7230,10 +7230,10 @@
         </is>
       </c>
       <c r="J140" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K140" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="141">
@@ -7241,36 +7241,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Middleware Infrastructure Engineer</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LMS</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Excellent scripting skills in Shell, Perl, Python, etc.Experience producing multi-tier, high-availability infrastructure architectures in a cloud environment.</t>
+          <t>Your Day to Day Includes:Here's how to tell if you're who we're looking for:You have a strong passion for new technologies and driving innovation.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Doral, FL 33172</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a58bf881bccc7ed&amp;fccid=ba98ab0eaa5f2d74&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c62f920289eae879&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7279,10 +7279,10 @@
         </is>
       </c>
       <c r="J141" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K141" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="142">
@@ -7290,21 +7290,21 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>QA Test Automation Lead</t>
+          <t>Software Engineer - Python - Miami</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Royal Caribbean Cruises Ltd. International</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Proficiency with object-oriented programming using technologies like Core Java, Restful, SOAP, message queues, Apache Kafka, Jenkins, Eclipse, IntelliJ, Maven,…</t>
+          <t>You are a developer who has 3+ years of Python, Ruby, or Java experience.You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7314,12 +7314,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=834fab11e67743c3&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7328,10 +7328,10 @@
         </is>
       </c>
       <c r="J142" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K142" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="143">
@@ -7339,21 +7339,21 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Azure Fullstack .NET Developer</t>
+          <t>Sr Native IOS Developer</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ProsourceIT</t>
+          <t>bkissel@cticonsulting.net</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ProsourceIT, a technical consulting, staffing and training firm, is seeking an Azure Fullstack .NET Developer to join our Fortune 500 client in Miami, FL on a…</t>
+          <t>We are looking for a Sr Native IOS Developer for a contract role based in South Florida.The contract will be from 6 months to 1 year.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=555f8913df46b958&amp;fccid=1953ab42318457e5&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ef598054f91bdbfc&amp;fccid=3b56e2962b71c09c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7377,10 +7377,10 @@
         </is>
       </c>
       <c r="J143" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K143" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="144">
@@ -7388,36 +7388,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Android Engineer</t>
+          <t>Software Developer - Miami</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Uncommon Coders</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Project management - you won't be managing the project, but you will be working in a large team with lots of project management, so you'll have to be able to…</t>
+          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 2+ years of Ruby, Node.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>+1 location</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d3c7ba3ca2db8af2&amp;fccid=02008dbc1f346843&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b4ad180d83f51a9a&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="J144" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K144" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="145">
@@ -7437,36 +7437,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Mainframe Developer</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Experience with Google Data Flow and Pubsub or similar cloud technology.Design and develop highly scalable and reliable data engineering pipelines to process…</t>
+          <t>1 Mainframe Utilities PL4 Required 2 ANSI SQL PL4 Required 3 VSAM PL4 Required 4 JCL PL4 Required 5 COBOL PL4 Required.We have a Mainframe Developer Position .</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>Cognizant·6</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3fd2083214d7d7a7&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7475,10 +7475,10 @@
         </is>
       </c>
       <c r="J145" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K145" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="146">
@@ -7486,26 +7486,26 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Network Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Insight Enterprises, Inc.</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The position described above provides a summary of some the job duties required and what it would be like to work at Insight.Windows Server 2008 to 2016;</t>
+          <t>Experience with Google Data Flow and Pubsub or similar cloud technology.Experience with Google Cloud Architecture or similar.What you bring to the team:</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3eaa276eac5342b6&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d2d3a1936d82f4aa&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7524,10 +7524,10 @@
         </is>
       </c>
       <c r="J146" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K146" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="147">
@@ -7535,36 +7535,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Dot Net Developer with Production Support</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Cognizant Technology Solutions</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ADONET Net Programming C Net ASPNET.We are looking out for Dot Net Developer.Resource for support project Primary Skill Set Net Rest API.</t>
+          <t>Your Day to Day Includes:At least 5 years' experience leading a development team.Contributes to the overall strategic planning to meet company initiatives.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7573,10 +7573,10 @@
         </is>
       </c>
       <c r="J147" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K147" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="148">
@@ -7584,36 +7584,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Front-End (UI) Web Developer</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Complyright, Inc.</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Experience with Microsoft Visual Studio.It’s time to look at Taylor.We are seeking someone who loves being a hands-on individual contributor, spending a…</t>
+          <t>SUMMARY: The Senior Database Developer analyzes and examines the business to define needs and/or opportunities by gathering and analyzing data and recommending…</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="J148" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K148" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="149">
@@ -7633,36 +7633,36 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DevOps Support</t>
+          <t>Analyst, Sr. Database Developer</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Green Roads</t>
+          <t>Royal Caribbean Cruises Ltd. International</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>3-5+ years of experience Mac OS, Microsoft Office 365, Active Directory and Microsoft Exchange Email.Isolate and troubleshoot operational issues quickly in a…</t>
+          <t>In-depth experience in business intelligence, data analytics, and project management required.This role is responsible for managing complex data from…</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=6635bf59b3ca4e9c&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="J149" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K149" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="150">
@@ -7682,36 +7682,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Systems Engineer (DevOps)</t>
+          <t>Automation Engineer</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Backbase</t>
+          <t>Connection</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Experience with Cloud (AWS or Google cloud) , as well as expertise with Linux/Unix systems.Working knowledge of Maven, Jenkins, Shell, and Python will help you…</t>
+          <t>Proven Development experience in Java, PHP or any scripting language.Working and implementation experience with Selenium Automation tool using Java.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33431</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=38ad8bc0e72af90f&amp;fccid=f8a8108a00b363f6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7720,10 +7720,10 @@
         </is>
       </c>
       <c r="J150" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K150" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="151">
@@ -7731,36 +7731,36 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Senior Platform Operations Engineer</t>
+          <t>Global Head of Patent - US/EMEA/APAC</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Marriott Vacations Worldwide</t>
+          <t>TTI Corporate</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Strong oral and written communication skills, including presentation skills (MS Visio, MS PowerPoint).Work with Engineering leadership to build shared services…</t>
+          <t>Responsible for integrating systems to facilitate timely patent clearance work to support new product development teams across multiple business units in…</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=93f7e3218d33328c&amp;fccid=c9f5f950ca3de531&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7769,10 +7769,10 @@
         </is>
       </c>
       <c r="J151" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K151" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="152">
@@ -7780,36 +7780,36 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Senior Release Engineer</t>
+          <t>Application Development Manager</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Amadeus IT Group SA</t>
+          <t>The Learning Experience Corporate Opportunities</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>5+ years TFS/VSTS or similar work-item tracking, Source Control, and Build/Release automation.4+ years real world experience with Microsoft SQL Server, Mongo,…</t>
+          <t>Your Day to Day Includes:At least 5 years' experience leading a development team.Contributes to the overall strategic planning to meet company initiatives.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Deerfield Beach, FL</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=85c3183a7b867640&amp;fccid=ffc4c94689585496&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a4b54ec13091af52&amp;fccid=383cb7ce9ff30d81&amp;vjs=3</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7818,10 +7818,10 @@
         </is>
       </c>
       <c r="J152" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K152" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="153">
@@ -7829,36 +7829,36 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Java – J2EE Architect</t>
+          <t>IT Application Development Technical Lead</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Axiom Global Technologies</t>
+          <t>Ryder</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Lead project team of developers and other technical resources.The candidate must have at least 10+ years of experience in the full lifecycle software…</t>
+          <t>Detail oriented with excellent follow-up practices.Documents all specifications and requirements for implementation and develop Business Process Procedures …</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Plantation, FL 33324</t>
+          <t>Miami, FL 33138 (Upper Eastside area)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2679085e538ad0dc&amp;fccid=389d5a2ac271d6f3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="J153" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K153" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="154">
@@ -7878,36 +7878,36 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>OPULENTSOFT</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Programming Languages C, C++, Core Java, C#.Experience of Project Management Tool using MS Project and MS Visio, UML Case Diagram.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b9fc2bc7f9149f3a&amp;fccid=5bffc2af21727107&amp;vjs=3</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7916,10 +7916,10 @@
         </is>
       </c>
       <c r="J154" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K154" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="155">
@@ -7927,36 +7927,36 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+          <t>Dot Net Developer with Production Support</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>PSAV Presentation Services</t>
+          <t>Cognizant Technology Solutions</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Achieve Technical Level 3 Certification per PSAV Technical Skillset Matrix (@PSAV/HR/Global Learning).Understands company processes, follows procedures and…</t>
+          <t>Net Programming Net ASPNET ANSI SQL.ADONET Net Programming C Net ASPNET.We are looking out for Dot Net Developer.WCF Entity Framework Net Framework.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=8e034db8a7866188&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7965,10 +7965,10 @@
         </is>
       </c>
       <c r="J155" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K155" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="156">
@@ -7976,36 +7976,36 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+          <t>Senior Software Engineer - Miami</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Egret Technologies</t>
+          <t>Credit Ninja</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t> Excellent written and oral communication skills to support interaction with. With the electrical engineering team, prototype and test products and…</t>
+          <t>You understand SQL databases, and specifically PostgreSQL (and can write SQL by hand).You are a developer who has 5+ years of Ruby, Node.JS or Go experience.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=62af14a774686acf&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="J156" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K156" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="157">
@@ -8025,36 +8025,36 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+          <t>Sr. Wireless Engineer</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Performant Financial Corporation</t>
+          <t>Insight Enterprises, Inc.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Capable of quickly learning new technologies and procedures, as well as being willing to train others in procedures mastered as part of implementations.</t>
+          <t>The position described above provides a summary of some the job duties required and what it would be like to work at Insight.What you’ll do at Insight:</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=170162b4f0993cb0&amp;fccid=3f1f78890d39a15e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="J157" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K157" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="158">
@@ -8074,36 +8074,36 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Systems Engineering DevOps- Senior Consultant</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Advanced knowledge/experience with Microsoft Professional Suite (Word, Excel, &amp; PowerPoint) and Microsoft Project required.Learn more about Life at Deloitte.</t>
+          <t>Jenkins, Ansible, Git, Gitlabs CI/CD, Docker Network and security management for hybrid environment Cloud Architect Certification on Multi-Cloud Platforms.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Miami, FL 33131</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8112,10 +8112,10 @@
         </is>
       </c>
       <c r="J158" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K158" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="159">
@@ -8123,26 +8123,26 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+          <t>Systems Engineer (DevOps)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PSAV</t>
+          <t>Backbase</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+          <t>Experience with Cloud (AWS or Google cloud) , as well as expertise with Linux/Unix systems.Working knowledge of Maven, Jenkins, Shell, and Python will help you…</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=504c54aa1b6198a3&amp;fccid=785d678bdb666ef9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="J159" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K159" s="3" t="n">
-        <v>43794.71672758179</v>
+        <v>43796.53543743736</v>
       </c>
     </row>
     <row r="160">
@@ -8172,48 +8172,1077 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>11</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Senior Full- Stack Developer</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SmartProcure-GovSpend</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>We're looking for a passionate Senior Full-Stack Developer to help us build the next generation of GovSpend, a well-funded civic startup disrupting government…</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Deerfield Beach, FL 33441</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e55addec9100d48e&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K160" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Senior Java Engineer</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>American Express</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Proven hands-on experience with object-oriented design and coding skills across a variety of platforms and languages including Java, J2EE, and Go Lang.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sunrise, FL</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6d3b157befea4c4b&amp;fccid=f057e04c37cca134&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K161" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>13</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Developer, Senior .NET Web, Energy Management</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Royal Caribbean Cruises Ltd.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>¿ Support with the vessel operations performance big data strategy (1B data tags collected from the fleet) and extract from the cloud database using APIs.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Miami, FL 33132 (Downtown area)</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f1d36595b2769eca&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K162" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>14</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sr. QA Analyst - Automation Engineer</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Connection, Inc.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Proven Development experience in Java, PHP or any scripting language.Working and implementation experience with Selenium Automation tool using Java.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b1c7455e15561589&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SENIOR EMBEDDED FIRMWARE ENGINEER</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Egret Technologies</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t> Excellent written and oral communication skills to support interaction with.The position is for a senior embedded firmware engineer with expertise in…</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Dania Beach, FL</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2 days ago·</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=9ef16f0f9287108f&amp;fccid=8930eb9f4efd900c&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Manager, Software Engineering</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Thomson Reuters</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Proven track record of successfully leading multiple projects teams through the full software development life cycle to deliver business goals and requirements.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Delray Beach, FL 33445</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c45c1ffc2e2f3abf&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J165" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K165" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>17</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Front-End (UI) Web Developer</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Complyright, Inc.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Experience with Microsoft Visual Studio.We build world class cloud services for small businesses to complete employee management and compliance tasks without…</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Pompano Beach, FL</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e2d10a3ac660c054&amp;fccid=c3a258bb8c3cddbc&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>18</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Technical Lead - Web Development</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Appirio</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Excellent communication skills with the ability to explain ideas very clearly through verbal, graphic, and written communication.Expert in HTML5 and CSS3.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=65392defbafb7d7f&amp;fccid=adfb429f0faca696&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K167" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>19</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sr. PHP Developer</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Connection, Inc.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Designs, develops, implements and test eCommerce related web applications, content management systems and services using Linux/Apache/MySQL/PHP technologies and…</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=03747c73ec336952&amp;fccid=926f4db4efb03d36&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K168" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>20</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Build and Configuration Management Engineer (Temp to Hire)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Performant Financial Corporation</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Capable of quickly learning new technologies and procedures, as well as being willing to train others in procedures mastered as part of implementations.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sunrise, FL</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2 days ago·</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f8a02ce0b8858aa6&amp;fccid=6263666895b8ca6a&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K169" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>21</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>.Net Developer, National Federal Tax</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Experience in web design and development in Microsoft technologies (.Net 3.5 or higher).Experience developing and maintaining software framework and services…</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cb753e60094f5ac5&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K170" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>22</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Java – J2EE Architect</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Axiom Global Technologies</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Lead project team of developers and other technical resources.J2EE Architect/Tech Leads to join our Portal Solutions portfolio focusing on Enterprise Solutions…</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Plantation, FL 33324</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fbd9973a18cdde42&amp;fccid=fa02b2e9e3571333&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K171" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>23</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DevOps Support</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Green Roads</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3-5+ years of experience Mac OS, Microsoft Office 365, Active Directory and Microsoft Exchange Email.Isolate and troubleshoot operational issues quickly in a…</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Deerfield Beach, FL</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2403652ad1c8575e&amp;fccid=6fb681a43a198cec&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>24</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>QA Automation Engineer - Miami</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Credit Ninja</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Experience programming in Java or Ruby.QA test suite - Java, Cucumber.The right person for this role will be comfortable manually testing and creating…</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5a264bb0f9200c24&amp;fccid=bbc25cf65d6bdcee&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>25</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>QA Test Automation Lead</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Royal Caribbean Cruises Ltd. International</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>8+ years’ of Java and spring boot experience.Proficiency with object-oriented programming using technologies like Core Java, Restful, SOAP, message queues,…</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e746922f13231ad8&amp;fccid=fa65a3fcc2b211c1&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>26</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Sr Java Developer/Lead</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cognizant Technology Solutions</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Java, Java Rest Service, SOAP Service, Hibernate ORM.1 JSON PL2 Desired 2 DOJO PL2 Desired 3 JQuery PL2 Required 4 Spring MVC PL3 Required 5 Spring Core PL2…</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6699e5a3e9e36eb1&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>.Net Senior Developer, National Federal Tax</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Experience in web design and development in Microsoft technologies (.Net 3.5 or higher).Experience developing and maintaining software framework and services…</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=63cc9d40140db41b&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>28</v>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Global Head of Patent - US/EMEA/APAC</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>TTI Corporate</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Well organized, detail oriented and a team player.Work on a wide variety of intellectual property matters, product clearance, patent filing &amp; prosecution,…</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Fort Lauderdale, FL 33301 (Colee Hammock area)</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Systems Engineering DevOps- Senior Consultant</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Advanced knowledge/experience with Microsoft Professional Suite (Word, Excel, &amp; PowerPoint) and Microsoft Project required.Learn more about Life at Deloitte.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4648b92d48675e3c&amp;fccid=9e215d88a6b33622&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K177" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>29</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PSAV</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Miami, FL 33131</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f915cc44a35259c8&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>30</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Marriott Biscayne Bay</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>PSAV Presentation Services</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Miami, FL 33132 (Downtown area)</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>5 days ago·</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1385149d006ebd00&amp;fccid=4687d587b4d4796d&amp;vjs=3</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="J160" s="2" t="n">
-        <v>43794</v>
-      </c>
-      <c r="K160" s="3" t="n">
-        <v>43794.71672758179</v>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=39cc8922c7b07949&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K179" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>31</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>PSAV Presentation Services</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Miami Beach, FL 33139</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=61505fe480792ec9&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K180" s="3" t="n">
+        <v>43796.53543743736</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>32</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Technical Lead Audio Visual Ritz Carlton South Beach</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>PSAV</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Team members will use high-end audio visual equipment and electrical components, and will be exposed to heights via lifts and ladders.</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Miami Beach, FL</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a1480bd21ce8c08d&amp;fccid=13511c7e27d8fcb2&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K181" s="3" t="n">
+        <v>43796.53543743736</v>
       </c>
     </row>
   </sheetData>
